--- a/SESAMI_2/Outputs/ML_model_GUITestData_Na_test.xlsx
+++ b/SESAMI_2/Outputs/ML_model_GUITestData_Na_test.xlsx
@@ -629,7 +629,7 @@
         <v>0.03256825193128428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02867259778665464</v>
+        <v>0.02867259778665463</v>
       </c>
       <c r="E2" t="n">
         <v>0.2210730065409693</v>
@@ -644,16 +644,16 @@
         <v>0.2087532855100407</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0308284081292314</v>
+        <v>0.03082840812923141</v>
       </c>
       <c r="J2" t="n">
         <v>0.005781642079582675</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006334460671604475</v>
+        <v>0.006334460671604474</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05659207686276931</v>
+        <v>0.05659207686276933</v>
       </c>
       <c r="M2" t="n">
         <v>0.1057203784721866</v>
@@ -668,7 +668,7 @@
         <v>0.001084170405290386</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001187471112801136</v>
+        <v>0.001187471112801135</v>
       </c>
       <c r="R2" t="n">
         <v>0.01060994289711917</v>
@@ -683,13 +683,13 @@
         <v>0.03131419473029511</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0008865132734393408</v>
+        <v>0.0008865132734393405</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007385400663400008</v>
+        <v>0.007385400663400006</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01355333416050768</v>
+        <v>0.01355333416050767</v>
       </c>
       <c r="Y2" t="n">
         <v>0.01779936799239156</v>
